--- a/CodeSystem-hemorrhagic-stroke-bleeding-reason-cs.xlsx
+++ b/CodeSystem-hemorrhagic-stroke-bleeding-reason-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
   <si>
     <t>Level</t>
@@ -139,27 +139,6 @@
   </si>
   <si>
     <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>aneurysm</t>
-  </si>
-  <si>
-    <t>Bleeding Reason Aneurysm</t>
-  </si>
-  <si>
-    <t>A cerebral aneurysm was identified as the cause of the patient's hemorrhagic stroke</t>
-  </si>
-  <si>
-    <t>malformation</t>
-  </si>
-  <si>
-    <t>Bleeding Reason Malformation</t>
-  </si>
-  <si>
-    <t>A vascular malformation was identified as the cause of the patient's hemorrhagic stroke</t>
   </si>
   <si>
     <t>other</t>
@@ -485,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,44 +486,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-hemorrhagic-stroke-bleeding-reason-cs.xlsx
+++ b/CodeSystem-hemorrhagic-stroke-bleeding-reason-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Hemorrhagic Stroke Bleeding Reason Code System</t>
+    <t>Hemorrhagic Stroke Bleeding Reason CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes indicating the reason for bleeding in hemorrhagic stroke cases.</t>
+    <t>Local CodeSystem representing **locally governed reasons/causes** for intracranial bleeding in hemorrhagic stroke.
+**Primary use-case**
+- Used via `HemorrhagicStrokeBleedingReasonVS` as the allowed vocabulary for `HemorrhagicStrokeBleedingReasonExt.valueCodeableConcept`
+  on a definitive hemorrhagic stroke Condition.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-hemorrhagic-stroke-bleeding-reason-cs.xlsx
+++ b/CodeSystem-hemorrhagic-stroke-bleeding-reason-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
